--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganes\PyCharmMiscProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganes\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E6754FC-7EAE-4B96-ABA7-9656EB7927D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D06DBC3-2856-40A0-BDB5-CC403280080B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="528" windowWidth="17280" windowHeight="8880" xr2:uid="{1C5BE19E-C3A9-49F5-ACEF-C6D249C4F8FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C5BE19E-C3A9-49F5-ACEF-C6D249C4F8FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>type of work</t>
+  </si>
+  <si>
+    <t>work date</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +394,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEA40BE-67BF-47B8-913F-07FDE973D616}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>